--- a/4.1 Diccionario de datos Base AirBnb.xlsx
+++ b/4.1 Diccionario de datos Base AirBnb.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Rodriguez\Documents\GitHub\Formularios_DS4A\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diego Rodriguez\Documents\GitHub\Formularios_DS4A_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD16B442-4290-4C8F-9B34-0965D95EA18B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B65E0C-5DB5-4B27-AE17-C7D76926C5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="292">
   <si>
     <t>Metric</t>
   </si>
@@ -898,13 +898,16 @@
   </si>
   <si>
     <t>Fecha_Corte</t>
+  </si>
+  <si>
+    <t>4.1 Diccionario de datos Base AirBnb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1095,6 +1098,14 @@
       <color rgb="FF212121"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -1452,7 +1463,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1483,6 +1494,9 @@
     </xf>
     <xf numFmtId="0" fontId="26" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -1878,10 +1892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1892,1111 +1906,1121 @@
     <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+    </row>
+    <row r="3" spans="1:4" ht="18">
+      <c r="A3" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="60.75">
-      <c r="A2" s="5" t="s">
+    <row r="4" spans="1:4" ht="62.25">
+      <c r="A4" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="45.75">
-      <c r="A3" s="5" t="s">
+    <row r="5" spans="1:4" ht="54">
+      <c r="A5" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D5" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="30.75">
-      <c r="A4" s="5"/>
-      <c r="B4" s="4" t="s">
+    <row r="6" spans="1:4" ht="36">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="45.75">
-      <c r="A6" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30">
       <c r="A7" s="5"/>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="75.75">
-      <c r="A8" s="5"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="54">
+      <c r="A8" s="5" t="s">
+        <v>289</v>
+      </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="60">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="36">
       <c r="A9" s="5"/>
       <c r="B9" s="4" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="75">
-      <c r="A10" s="5" t="s">
-        <v>272</v>
-      </c>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="77.25">
+      <c r="A10" s="5"/>
       <c r="B10" s="4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>29</v>
+        <v>22</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="60">
       <c r="A11" s="5"/>
       <c r="B11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="75">
+      <c r="A12" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D13" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="60">
-      <c r="A12" s="5" t="s">
+    <row r="14" spans="1:4" ht="60">
+      <c r="A14" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="45">
-      <c r="A13" s="5" t="s">
+    <row r="15" spans="1:4" ht="45">
+      <c r="A15" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D15" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="30">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4" t="s">
+    <row r="16" spans="1:4" ht="30">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D16" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30">
-      <c r="A15" s="5" t="s">
+    <row r="17" spans="1:4" ht="30">
+      <c r="A17" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="75">
-      <c r="A16" s="5" t="s">
+    <row r="18" spans="1:4" ht="75">
+      <c r="A18" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C18" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="30">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30.75">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="30">
       <c r="A19" s="5"/>
       <c r="B19" s="4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="30">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="36">
       <c r="A20" s="5"/>
       <c r="B20" s="4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="30">
       <c r="A21" s="5"/>
       <c r="B21" s="4" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="30">
       <c r="A22" s="5"/>
       <c r="B22" s="4" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="30">
-      <c r="A23" s="5" t="s">
-        <v>276</v>
-      </c>
+      <c r="A23" s="5"/>
       <c r="B23" s="4" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30.75">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="30">
       <c r="A24" s="5"/>
       <c r="B24" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="30">
-      <c r="A25" s="5"/>
+      <c r="A25" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="B25" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="36">
       <c r="A26" s="5"/>
       <c r="B26" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="60">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30">
       <c r="A27" s="5"/>
       <c r="B27" s="4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60">
       <c r="A28" s="5"/>
       <c r="B28" s="4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="30">
-      <c r="A29" s="5" t="s">
-        <v>274</v>
-      </c>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60">
+      <c r="A29" s="5"/>
       <c r="B29" s="4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="30">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45">
       <c r="A30" s="5"/>
       <c r="B30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30">
+      <c r="A31" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30">
+      <c r="A32" s="5"/>
+      <c r="B32" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C32" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D32" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="15.75">
-      <c r="A31" s="5"/>
-      <c r="B31" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75">
-      <c r="A32" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75">
+    <row r="33" spans="1:4" ht="18">
       <c r="A33" s="5"/>
       <c r="B33" s="4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="45">
-      <c r="A34" s="5"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="18">
+      <c r="A34" s="5" t="s">
+        <v>284</v>
+      </c>
       <c r="B34" s="4" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="30">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="18">
       <c r="A35" s="5"/>
       <c r="B35" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="60">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="45">
       <c r="A36" s="5"/>
       <c r="B36" s="4" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="30">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="36">
       <c r="A37" s="5"/>
       <c r="B37" s="4" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="30">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60">
       <c r="A38" s="5"/>
       <c r="B38" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>113</v>
+        <v>106</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="30">
       <c r="A39" s="5"/>
       <c r="B39" s="4" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="30">
       <c r="A40" s="5"/>
       <c r="B40" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="30.75">
+        <v>112</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="36">
       <c r="A41" s="5"/>
       <c r="B41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30">
+      <c r="A42" s="5"/>
+      <c r="B42" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="36">
+      <c r="A43" s="5"/>
+      <c r="B43" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C43" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D43" s="8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="60">
-      <c r="A42" s="5" t="s">
+    <row r="44" spans="1:4" ht="60">
+      <c r="A44" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30.75">
-      <c r="A43" s="5" t="s">
+    <row r="45" spans="1:4" ht="36">
+      <c r="A45" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C45" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D45" s="8" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="60">
-      <c r="A44" s="5"/>
-      <c r="B44" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="45">
-      <c r="A45" s="5"/>
-      <c r="B45" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="60">
       <c r="A46" s="5"/>
       <c r="B46" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75">
-      <c r="A47" s="5" t="s">
-        <v>281</v>
-      </c>
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="45">
+      <c r="A47" s="5"/>
       <c r="B47" s="4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="60">
       <c r="A48" s="5"/>
       <c r="B48" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="18">
+      <c r="A49" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="18">
+      <c r="A50" s="5"/>
+      <c r="B50" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C50" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D50" s="8" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="45">
-      <c r="A49" s="5" t="s">
+    <row r="51" spans="1:4" ht="45">
+      <c r="A51" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B51" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C51" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D51" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="30">
-      <c r="A50" s="5" t="s">
+    <row r="52" spans="1:4" ht="30">
+      <c r="A52" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B52" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C52" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D52" s="8" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="15.75">
-      <c r="A51" s="5"/>
-      <c r="B51" s="4" t="s">
+    <row r="53" spans="1:4" ht="18">
+      <c r="A53" s="5"/>
+      <c r="B53" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C53" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D53" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="45">
-      <c r="A52" s="5"/>
-      <c r="B52" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="45">
-      <c r="A53" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="30">
+    <row r="54" spans="1:4" ht="45">
       <c r="A54" s="5"/>
       <c r="B54" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="45">
+      <c r="A55" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30">
+      <c r="A56" s="5"/>
+      <c r="B56" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C56" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D56" s="8" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="30.75">
-      <c r="A55" s="5" t="s">
+    <row r="57" spans="1:4" ht="36">
+      <c r="A57" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B57" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C57" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30.75">
-      <c r="A56" s="5" t="s">
+    <row r="58" spans="1:4" ht="36">
+      <c r="A58" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B58" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C58" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="60">
-      <c r="A57" s="5"/>
-      <c r="B57" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30">
-      <c r="A58" s="5"/>
-      <c r="B58" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="D58" s="8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="30">
+    <row r="59" spans="1:4" ht="60">
       <c r="A59" s="5"/>
       <c r="B59" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="75">
-      <c r="A60" s="5" t="s">
-        <v>265</v>
-      </c>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="30">
+      <c r="A60" s="5"/>
       <c r="B60" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="60">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="30">
       <c r="A61" s="5"/>
       <c r="B61" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="30">
-      <c r="A62" s="5"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="75">
+      <c r="A62" s="5" t="s">
+        <v>265</v>
+      </c>
       <c r="B62" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="30.75">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="60">
       <c r="A63" s="5"/>
       <c r="B63" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="30">
       <c r="A64" s="5"/>
       <c r="B64" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="36">
       <c r="A65" s="5"/>
       <c r="B65" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="30">
+      <c r="A66" s="5"/>
+      <c r="B66" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="45">
+      <c r="A67" s="5"/>
+      <c r="B67" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D67" s="8" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30">
-      <c r="A66" s="5" t="s">
+    <row r="68" spans="1:4" ht="36">
+      <c r="A68" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B68" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C68" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D68" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="15.75">
-      <c r="A67" s="5" t="s">
+    <row r="69" spans="1:4" ht="18">
+      <c r="A69" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B69" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C69" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D69" s="8" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="30">
-      <c r="A68" s="5"/>
-      <c r="B68" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="30">
-      <c r="A69" s="5"/>
-      <c r="B69" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="D69" s="8" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="30">
       <c r="A70" s="5"/>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30">
+      <c r="A71" s="5"/>
+      <c r="B71" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="30">
+      <c r="A72" s="5"/>
+      <c r="B72" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C72" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D72" s="8" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="30">
-      <c r="A71" s="5" t="s">
+    <row r="73" spans="1:4" ht="36">
+      <c r="A73" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B73" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C73" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D73" s="8" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="75">
-      <c r="A72" s="5" t="s">
+    <row r="74" spans="1:4" ht="75">
+      <c r="A74" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B74" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="C74" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="45">
-      <c r="A73" s="5"/>
-      <c r="B73" s="4" t="s">
+    <row r="75" spans="1:4" ht="45">
+      <c r="A75" s="5"/>
+      <c r="B75" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C75" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D75" s="12" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="75">
-      <c r="A74" s="5"/>
-      <c r="B74" s="4" t="s">
+    <row r="76" spans="1:4" ht="75">
+      <c r="A76" s="5"/>
+      <c r="B76" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D76" s="8" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="75">
-      <c r="A75" s="5" t="s">
+    <row r="77" spans="1:4" ht="75">
+      <c r="A77" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B77" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C77" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D77" s="8" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="75">
-      <c r="A76" s="5" t="s">
+    <row r="78" spans="1:4" ht="75">
+      <c r="A78" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B78" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C78" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D78" s="8" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="30">
-      <c r="A77" s="5"/>
-      <c r="B77" s="4" t="s">
+    <row r="79" spans="1:4" ht="30">
+      <c r="A79" s="5"/>
+      <c r="B79" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C79" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D79" s="8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="60">
-      <c r="A78" s="5"/>
-      <c r="B78" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="30">
-      <c r="A79" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="30">
+    <row r="80" spans="1:4" ht="60">
       <c r="A80" s="5"/>
       <c r="B80" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="30">
-      <c r="A81" s="5"/>
+      <c r="A81" s="5" t="s">
+        <v>283</v>
+      </c>
       <c r="B81" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="45">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="36">
       <c r="A82" s="5"/>
       <c r="B82" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="30">
-      <c r="A83" s="5" t="s">
-        <v>275</v>
-      </c>
+      <c r="A83" s="5"/>
       <c r="B83" s="4" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="30">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="45">
       <c r="A84" s="5"/>
       <c r="B84" s="4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="30">
-      <c r="A85" s="5"/>
+      <c r="A85" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="B85" s="4" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="30.75">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="30">
       <c r="A86" s="5"/>
       <c r="B86" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30">
+      <c r="A87" s="5"/>
+      <c r="B87" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D87" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="36">
+      <c r="A88" s="5"/>
+      <c r="B88" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="D88" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30">
-      <c r="A87" s="5" t="s">
+    <row r="89" spans="1:4" ht="30">
+      <c r="A89" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B89" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C89" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="D87" s="12" t="s">
+      <c r="D89" s="12" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
